--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Mmrn2</t>
+  </si>
+  <si>
+    <t>Cd248</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmrn2</t>
-  </si>
-  <si>
-    <t>Cd248</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H2">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I2">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J2">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6883819999999999</v>
+        <v>0.7661790000000001</v>
       </c>
       <c r="N2">
-        <v>2.065146</v>
+        <v>2.298537</v>
       </c>
       <c r="O2">
-        <v>0.01007724292540701</v>
+        <v>0.01101161754618133</v>
       </c>
       <c r="P2">
-        <v>0.01007724292540701</v>
+        <v>0.01101161754618133</v>
       </c>
       <c r="Q2">
-        <v>17.054521554926</v>
+        <v>40.76384395785301</v>
       </c>
       <c r="R2">
-        <v>153.490693994334</v>
+        <v>366.874595620677</v>
       </c>
       <c r="S2">
-        <v>0.008949770283933445</v>
+        <v>0.0103694398786221</v>
       </c>
       <c r="T2">
-        <v>0.008949770283933445</v>
+        <v>0.01036943987862209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H3">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I3">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J3">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>178.267429</v>
       </c>
       <c r="O3">
-        <v>0.8698872562621465</v>
+        <v>0.8540270394120407</v>
       </c>
       <c r="P3">
-        <v>0.8698872562621465</v>
+        <v>0.8540270394120407</v>
       </c>
       <c r="Q3">
-        <v>1472.179550705732</v>
+        <v>3161.517808294423</v>
       </c>
       <c r="R3">
-        <v>13249.61595635159</v>
+        <v>28453.66027464981</v>
       </c>
       <c r="S3">
-        <v>0.7725616196905281</v>
+        <v>0.8042217233536083</v>
       </c>
       <c r="T3">
-        <v>0.7725616196905281</v>
+        <v>0.8042217233536082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H4">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I4">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J4">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.112138333333334</v>
+        <v>9.295765000000001</v>
       </c>
       <c r="N4">
-        <v>24.336415</v>
+        <v>27.887295</v>
       </c>
       <c r="O4">
-        <v>0.1187538149305275</v>
+        <v>0.1335998624070593</v>
       </c>
       <c r="P4">
-        <v>0.1187538149305275</v>
+        <v>0.1335998624070593</v>
       </c>
       <c r="Q4">
-        <v>200.9765479956984</v>
+        <v>494.5725658480217</v>
       </c>
       <c r="R4">
-        <v>1808.788931961285</v>
+        <v>4451.153092632196</v>
       </c>
       <c r="S4">
-        <v>0.1054672763012747</v>
+        <v>0.1258085594793117</v>
       </c>
       <c r="T4">
-        <v>0.1054672763012747</v>
+        <v>0.1258085594793117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H5">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I5">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J5">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.08755266666666667</v>
+        <v>0.09473066666666667</v>
       </c>
       <c r="N5">
-        <v>0.262658</v>
+        <v>0.284192</v>
       </c>
       <c r="O5">
-        <v>0.001281685881919029</v>
+        <v>0.001361480634718677</v>
       </c>
       <c r="P5">
-        <v>0.001281685881919029</v>
+        <v>0.001361480634718677</v>
       </c>
       <c r="Q5">
-        <v>2.169099193264667</v>
+        <v>5.040057367825778</v>
       </c>
       <c r="R5">
-        <v>19.521892739382</v>
+        <v>45.360516310432</v>
       </c>
       <c r="S5">
-        <v>0.00113828696045577</v>
+        <v>0.001282081540556176</v>
       </c>
       <c r="T5">
-        <v>0.00113828696045577</v>
+        <v>0.001282081540556176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>4.923056</v>
       </c>
       <c r="I6">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J6">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6883819999999999</v>
+        <v>0.7661790000000001</v>
       </c>
       <c r="N6">
-        <v>2.065146</v>
+        <v>2.298537</v>
       </c>
       <c r="O6">
-        <v>0.01007724292540701</v>
+        <v>0.01101161754618133</v>
       </c>
       <c r="P6">
-        <v>0.01007724292540701</v>
+        <v>0.01101161754618133</v>
       </c>
       <c r="Q6">
-        <v>1.129647711797333</v>
+        <v>1.257314041008</v>
       </c>
       <c r="R6">
-        <v>10.166829406176</v>
+        <v>11.315826369072</v>
       </c>
       <c r="S6">
-        <v>0.0005928098006031137</v>
+        <v>0.000319833487005295</v>
       </c>
       <c r="T6">
-        <v>0.0005928098006031137</v>
+        <v>0.000319833487005295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.923056</v>
       </c>
       <c r="I7">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J7">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>178.267429</v>
       </c>
       <c r="O7">
-        <v>0.8698872562621465</v>
+        <v>0.8540270394120407</v>
       </c>
       <c r="P7">
-        <v>0.8698872562621465</v>
+        <v>0.8540270394120407</v>
       </c>
       <c r="Q7">
         <v>97.51339288255821</v>
@@ -883,10 +883,10 @@
         <v>877.6205359430239</v>
       </c>
       <c r="S7">
-        <v>0.05117249775053179</v>
+        <v>0.02480529721146053</v>
       </c>
       <c r="T7">
-        <v>0.05117249775053179</v>
+        <v>0.02480529721146053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.923056</v>
       </c>
       <c r="I8">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J8">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.112138333333334</v>
+        <v>9.295765000000001</v>
       </c>
       <c r="N8">
-        <v>24.336415</v>
+        <v>27.887295</v>
       </c>
       <c r="O8">
-        <v>0.1187538149305275</v>
+        <v>0.1335998624070593</v>
       </c>
       <c r="P8">
-        <v>0.1187538149305275</v>
+        <v>0.1335998624070593</v>
       </c>
       <c r="Q8">
-        <v>13.31217043158222</v>
+        <v>15.25452388594667</v>
       </c>
       <c r="R8">
-        <v>119.80953388424</v>
+        <v>137.29071497352</v>
       </c>
       <c r="S8">
-        <v>0.006985881542295134</v>
+        <v>0.003880420808103298</v>
       </c>
       <c r="T8">
-        <v>0.006985881542295134</v>
+        <v>0.003880420808103298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.923056</v>
       </c>
       <c r="I9">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J9">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08755266666666667</v>
+        <v>0.09473066666666667</v>
       </c>
       <c r="N9">
-        <v>0.262658</v>
+        <v>0.284192</v>
       </c>
       <c r="O9">
-        <v>0.001281685881919029</v>
+        <v>0.001361480634718677</v>
       </c>
       <c r="P9">
-        <v>0.001281685881919029</v>
+        <v>0.001361480634718677</v>
       </c>
       <c r="Q9">
-        <v>0.1436755603164444</v>
+        <v>0.1554547923057778</v>
       </c>
       <c r="R9">
-        <v>1.293080042848</v>
+        <v>1.399093130752</v>
       </c>
       <c r="S9">
-        <v>7.539720514036908E-05</v>
+        <v>3.954433552255578E-05</v>
       </c>
       <c r="T9">
-        <v>7.539720514036908E-05</v>
+        <v>3.954433552255578E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H10">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I10">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J10">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6883819999999999</v>
+        <v>0.7661790000000001</v>
       </c>
       <c r="N10">
-        <v>2.065146</v>
+        <v>2.298537</v>
       </c>
       <c r="O10">
-        <v>0.01007724292540701</v>
+        <v>0.01101161754618133</v>
       </c>
       <c r="P10">
-        <v>0.01007724292540701</v>
+        <v>0.01101161754618133</v>
       </c>
       <c r="Q10">
-        <v>0.99140431449</v>
+        <v>1.267183958886</v>
       </c>
       <c r="R10">
-        <v>8.922638830409999</v>
+        <v>11.404655629974</v>
       </c>
       <c r="S10">
-        <v>0.0005202632536251476</v>
+        <v>0.0003223441805539378</v>
       </c>
       <c r="T10">
-        <v>0.0005202632536251476</v>
+        <v>0.0003223441805539376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H11">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I11">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J11">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>178.267429</v>
       </c>
       <c r="O11">
-        <v>0.8698872562621465</v>
+        <v>0.8540270394120407</v>
       </c>
       <c r="P11">
-        <v>0.8698872562621465</v>
+        <v>0.8540270394120407</v>
       </c>
       <c r="Q11">
-        <v>85.579953302885</v>
+        <v>98.27887322268421</v>
       </c>
       <c r="R11">
-        <v>770.219579725965</v>
+        <v>884.509859004158</v>
       </c>
       <c r="S11">
-        <v>0.04491013837613902</v>
+        <v>0.0250000188469719</v>
       </c>
       <c r="T11">
-        <v>0.04491013837613902</v>
+        <v>0.0250000188469719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H12">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I12">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J12">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.112138333333334</v>
+        <v>9.295765000000001</v>
       </c>
       <c r="N12">
-        <v>24.336415</v>
+        <v>27.887295</v>
       </c>
       <c r="O12">
-        <v>0.1187538149305275</v>
+        <v>0.1335998624070593</v>
       </c>
       <c r="P12">
-        <v>0.1187538149305275</v>
+        <v>0.1335998624070593</v>
       </c>
       <c r="Q12">
-        <v>11.683061066975</v>
+        <v>15.37427193067667</v>
       </c>
       <c r="R12">
-        <v>105.147549602775</v>
+        <v>138.36844737609</v>
       </c>
       <c r="S12">
-        <v>0.006130967229179849</v>
+        <v>0.003910882119644333</v>
       </c>
       <c r="T12">
-        <v>0.006130967229179849</v>
+        <v>0.003910882119644332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H13">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I13">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J13">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,276 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.08755266666666667</v>
+        <v>0.09473066666666667</v>
       </c>
       <c r="N13">
-        <v>0.262658</v>
+        <v>0.284192</v>
       </c>
       <c r="O13">
-        <v>0.001281685881919029</v>
+        <v>0.001361480634718677</v>
       </c>
       <c r="P13">
-        <v>0.001281685881919029</v>
+        <v>0.001361480634718677</v>
       </c>
       <c r="Q13">
-        <v>0.12609291277</v>
+        <v>0.1566751127537778</v>
       </c>
       <c r="R13">
-        <v>1.13483621493</v>
+        <v>1.410076014784</v>
       </c>
       <c r="S13">
-        <v>6.617028804291513E-05</v>
+        <v>3.985475863994561E-05</v>
       </c>
       <c r="T13">
-        <v>6.617028804291513E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.039861</v>
-      </c>
-      <c r="H14">
-        <v>0.119583</v>
-      </c>
-      <c r="I14">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J14">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.6883819999999999</v>
-      </c>
-      <c r="N14">
-        <v>2.065146</v>
-      </c>
-      <c r="O14">
-        <v>0.01007724292540701</v>
-      </c>
-      <c r="P14">
-        <v>0.01007724292540701</v>
-      </c>
-      <c r="Q14">
-        <v>0.027439594902</v>
-      </c>
-      <c r="R14">
-        <v>0.246956354118</v>
-      </c>
-      <c r="S14">
-        <v>1.439958724530498E-05</v>
-      </c>
-      <c r="T14">
-        <v>1.439958724530498E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.039861</v>
-      </c>
-      <c r="H15">
-        <v>0.119583</v>
-      </c>
-      <c r="I15">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J15">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>59.42247633333333</v>
-      </c>
-      <c r="N15">
-        <v>178.267429</v>
-      </c>
-      <c r="O15">
-        <v>0.8698872562621465</v>
-      </c>
-      <c r="P15">
-        <v>0.8698872562621465</v>
-      </c>
-      <c r="Q15">
-        <v>2.368639329123</v>
-      </c>
-      <c r="R15">
-        <v>21.317753962107</v>
-      </c>
-      <c r="S15">
-        <v>0.001243000444947578</v>
-      </c>
-      <c r="T15">
-        <v>0.001243000444947578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.039861</v>
-      </c>
-      <c r="H16">
-        <v>0.119583</v>
-      </c>
-      <c r="I16">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J16">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.112138333333334</v>
-      </c>
-      <c r="N16">
-        <v>24.336415</v>
-      </c>
-      <c r="O16">
-        <v>0.1187538149305275</v>
-      </c>
-      <c r="P16">
-        <v>0.1187538149305275</v>
-      </c>
-      <c r="Q16">
-        <v>0.323357946105</v>
-      </c>
-      <c r="R16">
-        <v>2.910221514945</v>
-      </c>
-      <c r="S16">
-        <v>0.0001696898577778273</v>
-      </c>
-      <c r="T16">
-        <v>0.0001696898577778273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.039861</v>
-      </c>
-      <c r="H17">
-        <v>0.119583</v>
-      </c>
-      <c r="I17">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J17">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.08755266666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.262658</v>
-      </c>
-      <c r="O17">
-        <v>0.001281685881919029</v>
-      </c>
-      <c r="P17">
-        <v>0.001281685881919029</v>
-      </c>
-      <c r="Q17">
-        <v>0.003489936846</v>
-      </c>
-      <c r="R17">
-        <v>0.031409431614</v>
-      </c>
-      <c r="S17">
-        <v>1.831428279975031E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.831428279975031E-06</v>
+        <v>3.98547586399456E-05</v>
       </c>
     </row>
   </sheetData>
